--- a/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T11:11:22-05:00</t>
+    <t>2023-05-04T21:49:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:49:21-05:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-08-27T12:23:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -219,10 +228,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -231,7 +240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -326,35 +335,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -376,12 +393,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -403,12 +420,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-11-22T12:33:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -219,10 +228,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -231,7 +240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -326,35 +335,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -376,12 +393,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -403,12 +420,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2025-02-18T16:25:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -219,10 +228,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -231,7 +240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -326,35 +335,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -376,12 +393,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -403,12 +420,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-cbc-w-auto-differential-blood-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-18T16:25:42-06:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,16 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
-  </si>
-  <si>
-    <t>Bob Milius (bmilius@nmdp.org)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -228,10 +219,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -240,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -335,43 +326,35 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -393,12 +376,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -420,12 +403,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
